--- a/biology/Botanique/Vinification/Vinification.xlsx
+++ b/biology/Botanique/Vinification/Vinification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La vinification consiste à transformer le moût de raisin en un type précis de vin doté de caractéristiques organoleptiques spécifiques. C'est l'étape succédant au pressurage pour les blancs ou au foulage pour les rouges, des raisins réceptionnés après la vendange et ayant donné le moût. Elle est généralement complétée par l'élevage du vin.
 S'effectuant dans un chai, sa phase principale est la cuvaison, lors de laquelle le moût subit une fermentation alcoolique produisant le vin.
@@ -512,36 +524,266 @@
           <t>Phases successives de la vinification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre et le nombre d'opérations diffèrent selon le type de vinification.
-Opérations préfermentaires
-Les opérations préfermentaires consistent à maîtriser l'état de la vendange (qualité sanitaire, présence ou non de rafles, intégrité des baies), d'autre part en la correction des propriétés œnologiques des moûts, ou de leur clarification.
-État physique de la vendange
-L'éraflage éventuel consiste à séparer les baies de la rafle qui peut transmettre des arômes herbacés non recherchés. L'opération est faite par un érafloir, les baies collectées tombant dans un fouloir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phases successives de la vinification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Opérations préfermentaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les opérations préfermentaires consistent à maîtriser l'état de la vendange (qualité sanitaire, présence ou non de rafles, intégrité des baies), d'autre part en la correction des propriétés œnologiques des moûts, ou de leur clarification.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phases successives de la vinification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Opérations préfermentaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>État physique de la vendange</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'éraflage éventuel consiste à séparer les baies de la rafle qui peut transmettre des arômes herbacés non recherchés. L'opération est faite par un érafloir, les baies collectées tombant dans un fouloir.
 Un foulage préfermentaire éventuel permet de libérer les jus plus facilement.
 Le pressurage des baies dans un pressoir à vin pour la vinification en vin blanc. Le moût en résultant est collecté dans une maie d'où il est envoyé dans une cuve de décantation.
-Corrections œnologiques
-Les corrections éventuelles d'après-vendange, pouvant avoir lieu au cours de la fermentation si elles sont autorisées par la législation en vigueur :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Phases successives de la vinification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Opérations préfermentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Corrections œnologiques</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les corrections éventuelles d'après-vendange, pouvant avoir lieu au cours de la fermentation si elles sont autorisées par la législation en vigueur :
 Chaptalisation
 Concentration par osmose inverse
 Acidification
 Désacidification
 Désalcoolisation
-Sulfitage éventuel du moût permettant de préserver les vins de l'oxydation et des enzymes présentes dans les vendanges altérées vin blanc (en France et dans d'autres pays, il est obligatoire de mentionner sur l'étiquette des bouteilles de vin l'emploi de sulfites).
-Gestion de la clarification et des propriétés aromatiques
-La stabulation éventuelle (pour les vinifications en blanc et rosé) accroît l'expression des arômes.
+Sulfitage éventuel du moût permettant de préserver les vins de l'oxydation et des enzymes présentes dans les vendanges altérées vin blanc (en France et dans d'autres pays, il est obligatoire de mentionner sur l'étiquette des bouteilles de vin l'emploi de sulfites).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phases successives de la vinification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Opérations préfermentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Gestion de la clarification et des propriétés aromatiques</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stabulation éventuelle (pour les vinifications en blanc et rosé) accroît l'expression des arômes.
 Un débourbage, consiste à clarifier le moût en enlevant les particules en suspension et les impuretés diverses, notamment pour les blancs et rosés. Le moût clarifié est envoyé en cuvaison. L'enzymage éventuel peut se faire à cette étape pour faciliter l'opération.
 L'assemblage éventuel de différents moûts (dans le cas de vinifications de différents cépages, parcelles, etc.).
 La macération pelliculaire (pour les vinifications en blanc et en rosé de pressurage direct) consiste en un contact de quelques heures des pellicules et du moût pour faire diffuser les arômes primaires et les anthocyanes (pour les rosés).
-Opérations fermentaires
-Opérations préliminaires à la cuvaison
-Ces opérations sont principalement réalisées pour les vins rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Phases successives de la vinification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Opérations fermentaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Opérations préliminaires à la cuvaison</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces opérations sont principalement réalisées pour les vins rouges.
 La macération carbonique (essentiellement pour le vin primeur) à partir de raisins entiers (non éraflés et non foulés) permettant d'avoir un début de fermentation alcoolique dans la baie de raisin.
 Une macération pré-fermentaire à froid (5-15 °C) avec des raisins entiers permet d'obtenir un début de fermentation alcoolique dans les baies de raisin.
 Le foulage consiste à faire éclater les baies de raisin pour en extraire le moût sans écraser les pépins. Le foulage peut intervenir avant la vinification proprement dite ou bien après une macération carbonique ou une macération pré-fermentaire à froid, ou bien encore avant une macération pelliculaire. Cette opération permet en outre un levurage naturel à partir des levures indigènes présentes sur les pellicules des baies du raisin (ce qui renforce la typicité du vin).
-Cuvaison
-La fermentation alcoolique dure de 5 à 20 jours dans les cas classiques, jusqu'à plusieurs mois dans des cas particuliers. La fermentation durant la cuvaison produit un important dégagement de gaz carbonique, et une élévation de la température qui peut être néfaste aux levures. La thermorégulation permet de respecter des températures optimales (entre 26 et 32 °C). Elle peut se faire en cuve ou en fûts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Phases successives de la vinification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Opérations fermentaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cuvaison</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fermentation alcoolique dure de 5 à 20 jours dans les cas classiques, jusqu'à plusieurs mois dans des cas particuliers. La fermentation durant la cuvaison produit un important dégagement de gaz carbonique, et une élévation de la température qui peut être néfaste aux levures. La thermorégulation permet de respecter des températures optimales (entre 26 et 32 °C). Elle peut se faire en cuve ou en fûts.
 La macération traditionnelle pour le vin rouge de garde et partielle pour le vin rosé de saignée se fait durant la fermentation alcoolique, voire au-delà (macération post-fermentaire). Pour le vin rouge, le contact de la partie liquide du moût avec le marc lors de la cuvaison permet une extraction, des arômes, de la couleur et des tanins.
 L'extraction peut être favorisée par :
 Le pigeage (entre 8 et 20 jours selon les vins) consistant à enfoncer le chapeau de marc dans la partie liquide du moût en fermentation tout en l’émiettant pour favoriser la diffusion des composés phénoliques et des arômes.
@@ -556,31 +798,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Vinification</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vinification</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Opérations succédant à la vinification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'issue de la cuvaison, l'écoulement par gravité du vin de goutte. Le décuvage puis le pressurage du marc, donnent le vin de presse.
 Un assemblage peut être réalisé à tout moment, entre le vin de goutte et de presse, entre deux cuvées, entre des vins de cépage pour faire un vin d'assemblage.
@@ -591,34 +835,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vinification</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vinification</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Catégories de vinifications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vinifications générales
-Le type de vinification diffère suivant le produit fini souhaité, classiquement on retrouve ces processus :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vinifications générales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le type de vinification diffère suivant le produit fini souhaité, classiquement on retrouve ces processus :
 vinification en vin rouge
 vinification en vin blanc
 vinification en vin effervescent
@@ -626,9 +875,43 @@
 production d'un blanc de noirs
 vinification en vin rosé
 vinification en rosé de saignée
-vinification en rosé de pressurage direct
-Vinifications spécifiques
-vinification en rosé de saignée
+vinification en rosé de pressurage direct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vinification</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Catégories de vinifications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vinifications spécifiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>vinification en rosé de saignée
 vinification en œil-de-perdrix
 vinification en gris
 vinification en clairet
